--- a/05-jinja2模板引擎/interfaces.xlsx
+++ b/05-jinja2模板引擎/interfaces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\feifeiflight\OneDrive\文档\NetDevOps\NetDevOpsTeach\codes\05-jinja2模板引擎\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15101fb0ca06a0df/文档/NetDevOps/NetDevOpsTeach/codes/05-jinja2模板引擎/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A95DEE-288E-4464-8AD7-1570E406CFEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="3045" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3120" yWindow="3120" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
